--- a/medicine/Enfance/Éditions_Fonfon/Éditions_Fonfon.xlsx
+++ b/medicine/Enfance/Éditions_Fonfon/Éditions_Fonfon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Fonfon</t>
+          <t>Éditions_Fonfon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Éditions Fonfon est une maison d’édition québécoise de livres jeunesse destinés aux enfants de 4 à 10 ans. Elle a été fondée en 2010 et est dirigée par Véronique Fontaine depuis 2013[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Éditions Fonfon est une maison d’édition québécoise de livres jeunesse destinés aux enfants de 4 à 10 ans. Elle a été fondée en 2010 et est dirigée par Véronique Fontaine depuis 2013.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Fonfon</t>
+          <t>Éditions_Fonfon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, André Fontaine crée les éditions du même nom, qui ses spécialisent dans des manuels de techniques policières, afin de remédier au manque d’ouvrages dans ce domaine professionnel[2].
-André Fontaine décède subitement en 2007 et laisse derrière lui sa maison d’édition, prise en charge peu de temps après par les sœurs Fontaine[2].
-L'une des soeurs Fontaine, Valérie, écrit une lettre destinée à son fils, né la veille de la mort d’André Fontaine. Elle y raconte des anecdotes pour que son fils Vincent puisse connaître son grand-père[1].
-Une fois l’écriture terminée, Valérie et Véronique décident de faire de cette lettre un livre illustré destinés aux membres de leur famille en utilisant la structure des Éditions André Fontaine. Elles se mettent ainsi à chercher une illustratrice. Ninon Pelletier, que les deux sœurs ont rencontré au Salon du livre de Montréal, est touchée par la lettre et donne son accord pour illustrer le texte de Valérie Fontaine[3].
-Sous l’expertise éditoriale de Diane Primeau, Toujours près de toi, ton album de partage sur le deuil est publié en mars 2010, et deux milles livres au lieu de cinquante, sont mis en marché. Valérie et Véronique profitent de cette première publication pour créer un volet jeunesse aux Éditons André Fontaine. Cette section jeunesse est dénommée Fonfon, en hommage au surnom de leur père quand il était enfant[1].
-Depuis, les Éditions Fonfon ne cessent d'évoluer et d'innover, avec notamment des ressources pédagogiques numériques directement accessibles via leur site internet, l'adaptation de livres en format numérique interactif[4] ou encore une plateforme web de création d'histoires, l'Atelier de création Fonfon[5], qui est lauréat du Bologna Ragazzi Cross Media Award dans la catégorie Digital Collections[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, André Fontaine crée les éditions du même nom, qui ses spécialisent dans des manuels de techniques policières, afin de remédier au manque d’ouvrages dans ce domaine professionnel.
+André Fontaine décède subitement en 2007 et laisse derrière lui sa maison d’édition, prise en charge peu de temps après par les sœurs Fontaine.
+L'une des soeurs Fontaine, Valérie, écrit une lettre destinée à son fils, né la veille de la mort d’André Fontaine. Elle y raconte des anecdotes pour que son fils Vincent puisse connaître son grand-père.
+Une fois l’écriture terminée, Valérie et Véronique décident de faire de cette lettre un livre illustré destinés aux membres de leur famille en utilisant la structure des Éditions André Fontaine. Elles se mettent ainsi à chercher une illustratrice. Ninon Pelletier, que les deux sœurs ont rencontré au Salon du livre de Montréal, est touchée par la lettre et donne son accord pour illustrer le texte de Valérie Fontaine.
+Sous l’expertise éditoriale de Diane Primeau, Toujours près de toi, ton album de partage sur le deuil est publié en mars 2010, et deux milles livres au lieu de cinquante, sont mis en marché. Valérie et Véronique profitent de cette première publication pour créer un volet jeunesse aux Éditons André Fontaine. Cette section jeunesse est dénommée Fonfon, en hommage au surnom de leur père quand il était enfant.
+Depuis, les Éditions Fonfon ne cessent d'évoluer et d'innover, avec notamment des ressources pédagogiques numériques directement accessibles via leur site internet, l'adaptation de livres en format numérique interactif ou encore une plateforme web de création d'histoires, l'Atelier de création Fonfon, qui est lauréat du Bologna Ragazzi Cross Media Award dans la catégorie Digital Collections.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Fonfon</t>
+          <t>Éditions_Fonfon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Histoires de vivre est la première collection des Éditions Fonfon lancée par la publication de Toujours près de toi, ton album de partage sur le deuil, en mars 2010. Histoires de rire traite des thèmes légers et drôles tandis que Histoires de lire est une collection pour les apprentis lecteurs, qui présente des histoires courtes dont l’auteur est le héros. Enfin, Courtepointe contient des coups de cœur et des formats originaux[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histoires de vivre est la première collection des Éditions Fonfon lancée par la publication de Toujours près de toi, ton album de partage sur le deuil, en mars 2010. Histoires de rire traite des thèmes légers et drôles tandis que Histoires de lire est une collection pour les apprentis lecteurs, qui présente des histoires courtes dont l’auteur est le héros. Enfin, Courtepointe contient des coups de cœur et des formats originaux.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Fonfon</t>
+          <t>Éditions_Fonfon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
